--- a/Caracteristicas/DM/CorrelacióncaracteristicasDM.xlsx
+++ b/Caracteristicas/DM/CorrelacióncaracteristicasDM.xlsx
@@ -351,7 +351,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -361,6 +361,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -392,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -401,6 +407,10 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -707,8 +717,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CY104"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="CR1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
-      <selection activeCell="W2" sqref="W2"/>
+    <sheetView tabSelected="1" topLeftCell="CV1" zoomScale="118" zoomScaleNormal="118" workbookViewId="0">
+      <selection activeCell="CV12" sqref="CV12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4184,314 +4194,314 @@
         <v>0.13213666404929761</v>
       </c>
     </row>
-    <row r="12" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A12" s="1" t="s">
+    <row r="12" spans="1:103" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="B12">
+      <c r="B12" s="5">
         <v>-2.7693094014319571E-2</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>-0.23357963700134121</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>0.25534494600058821</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="5">
         <v>0.27692756766894161</v>
       </c>
-      <c r="F12">
+      <c r="F12" s="5">
         <v>0.2776468385505631</v>
       </c>
-      <c r="G12">
+      <c r="G12" s="5">
         <v>-0.2404684520135614</v>
       </c>
-      <c r="H12">
+      <c r="H12" s="5">
         <v>0.27226985316680741</v>
       </c>
-      <c r="I12">
+      <c r="I12" s="5">
         <v>-0.15568140062143709</v>
       </c>
-      <c r="J12">
+      <c r="J12" s="5">
         <v>-0.22996032998831609</v>
       </c>
-      <c r="K12">
+      <c r="K12" s="5">
         <v>0.93107478681438927</v>
       </c>
-      <c r="L12">
+      <c r="L12" s="5">
         <v>1</v>
       </c>
-      <c r="M12">
+      <c r="M12" s="5">
         <v>0.2276063550580992</v>
       </c>
-      <c r="N12">
+      <c r="N12" s="5">
         <v>-0.72211900935474782</v>
       </c>
-      <c r="O12">
+      <c r="O12" s="5">
         <v>0.86907962985643838</v>
       </c>
-      <c r="P12">
+      <c r="P12" s="5">
         <v>-0.1291341713390218</v>
       </c>
-      <c r="Q12">
+      <c r="Q12" s="5">
         <v>-0.15569488790187119</v>
       </c>
-      <c r="R12">
+      <c r="R12" s="5">
         <v>0.16489893368377381</v>
       </c>
-      <c r="S12">
+      <c r="S12" s="5">
         <v>0.71133832185004109</v>
       </c>
-      <c r="T12">
+      <c r="T12" s="5">
         <v>-0.14311106944187091</v>
       </c>
-      <c r="U12">
+      <c r="U12" s="5">
         <v>-0.74668616624635864</v>
       </c>
-      <c r="V12">
+      <c r="V12" s="5">
         <v>6.3890206070115502E-2</v>
       </c>
-      <c r="W12" s="3">
+      <c r="W12" s="5">
         <v>-0.63318913509126062</v>
       </c>
-      <c r="X12">
+      <c r="X12" s="5">
         <v>-0.1372442450054577</v>
       </c>
-      <c r="Y12">
+      <c r="Y12" s="5">
         <v>-0.21932791308561911</v>
       </c>
-      <c r="Z12">
+      <c r="Z12" s="5">
         <v>-0.16608810495819101</v>
       </c>
-      <c r="AA12">
+      <c r="AA12" s="5">
         <v>-0.1206719723352123</v>
       </c>
-      <c r="AB12">
+      <c r="AB12" s="5">
         <v>-0.18030016503760721</v>
       </c>
-      <c r="AC12">
+      <c r="AC12" s="5">
         <v>-0.1372442450054577</v>
       </c>
-      <c r="AD12">
+      <c r="AD12" s="5">
         <v>-0.12493277291500821</v>
       </c>
-      <c r="AE12">
+      <c r="AE12" s="5">
         <v>-0.1288778462683205</v>
       </c>
-      <c r="AF12">
+      <c r="AF12" s="5">
         <v>-0.1330631573108694</v>
       </c>
-      <c r="AG12">
+      <c r="AG12" s="5">
         <v>-0.14293332645088039</v>
       </c>
-      <c r="AH12">
+      <c r="AH12" s="5">
         <v>-2.5137586958069391E-2</v>
       </c>
-      <c r="AI12">
+      <c r="AI12" s="5">
         <v>-6.3376046104570163E-2</v>
       </c>
-      <c r="AJ12">
+      <c r="AJ12" s="5">
         <v>-9.3170405297793267E-3</v>
       </c>
-      <c r="AK12">
+      <c r="AK12" s="5">
         <v>-6.1678402599532417E-2</v>
       </c>
-      <c r="AL12">
+      <c r="AL12" s="5">
         <v>-0.14293332645088039</v>
       </c>
-      <c r="AM12">
+      <c r="AM12" s="5">
         <v>-0.19300351040072281</v>
       </c>
-      <c r="AN12">
+      <c r="AN12" s="5">
         <v>-0.20954150019665421</v>
       </c>
-      <c r="AO12">
+      <c r="AO12" s="5">
         <v>-0.16957225665171469</v>
       </c>
-      <c r="AP12">
+      <c r="AP12" s="5">
         <v>-0.11937014900145031</v>
       </c>
-      <c r="AQ12">
+      <c r="AQ12" s="5">
         <v>-0.19300351040072281</v>
       </c>
-      <c r="AR12">
+      <c r="AR12" s="5">
         <v>-0.18183790944873979</v>
       </c>
-      <c r="AS12">
+      <c r="AS12" s="5">
         <v>-0.20021962724953249</v>
       </c>
-      <c r="AT12">
+      <c r="AT12" s="5">
         <v>-0.58927296294822373</v>
       </c>
-      <c r="AU12">
+      <c r="AU12" s="5">
         <v>-0.62104010096100382</v>
       </c>
-      <c r="AV12">
+      <c r="AV12" s="5">
         <v>-0.69986212548520677</v>
       </c>
-      <c r="AW12">
+      <c r="AW12" s="5">
         <v>-0.20021962724953249</v>
       </c>
-      <c r="AX12">
+      <c r="AX12" s="5">
         <v>-0.39660392017879798</v>
       </c>
-      <c r="AY12">
+      <c r="AY12" s="5">
         <v>0.16774764435062739</v>
       </c>
-      <c r="AZ12">
+      <c r="AZ12" s="5">
         <v>-0.26386323270551859</v>
       </c>
-      <c r="BA12">
+      <c r="BA12" s="5">
         <v>-0.36110466373515671</v>
       </c>
-      <c r="BB12">
+      <c r="BB12" s="5">
         <v>-0.30220867519744549</v>
       </c>
-      <c r="BC12">
+      <c r="BC12" s="5">
         <v>-0.15903950543134809</v>
       </c>
-      <c r="BD12">
+      <c r="BD12" s="5">
         <v>-9.018684417436465E-2</v>
       </c>
-      <c r="BE12">
+      <c r="BE12" s="5">
         <v>-0.13763036680029159</v>
       </c>
-      <c r="BF12">
+      <c r="BF12" s="5">
         <v>-0.44770194010209302</v>
       </c>
-      <c r="BG12">
+      <c r="BG12" s="5">
         <v>-0.14599431264720039</v>
       </c>
-      <c r="BH12">
+      <c r="BH12" s="5">
         <v>-0.44513707598573188</v>
       </c>
-      <c r="BI12">
+      <c r="BI12" s="5">
         <v>-0.58511779270042608</v>
       </c>
-      <c r="BJ12">
+      <c r="BJ12" s="5">
         <v>-0.52612699587294487</v>
       </c>
-      <c r="BK12">
+      <c r="BK12" s="5">
         <v>-0.48151264972780988</v>
       </c>
-      <c r="BL12">
+      <c r="BL12" s="5">
         <v>-0.49681909402621172</v>
       </c>
-      <c r="BM12">
+      <c r="BM12" s="5">
         <v>-0.18472996638965161</v>
       </c>
-      <c r="BN12">
+      <c r="BN12" s="5">
         <v>5.9420366522500642E-2</v>
       </c>
-      <c r="BO12">
+      <c r="BO12" s="5">
         <v>2.92281152473374E-2</v>
       </c>
-      <c r="BP12">
+      <c r="BP12" s="5">
         <v>2.92281152473374E-2</v>
       </c>
-      <c r="BQ12">
+      <c r="BQ12" s="5">
         <v>5.2643608936067433E-2</v>
       </c>
-      <c r="BR12">
+      <c r="BR12" s="5">
         <v>3.6355737386609313E-2</v>
       </c>
-      <c r="BS12">
+      <c r="BS12" s="5">
         <v>3.8854996791927908E-2</v>
       </c>
-      <c r="BT12">
+      <c r="BT12" s="5">
         <v>0.16501847971231279</v>
       </c>
-      <c r="BU12">
+      <c r="BU12" s="5">
         <v>0.19752400799892519</v>
       </c>
-      <c r="BV12">
+      <c r="BV12" s="5">
         <v>9.8082254220498311E-3</v>
       </c>
-      <c r="BW12">
+      <c r="BW12" s="5">
         <v>-0.6195809339497983</v>
       </c>
-      <c r="BX12">
+      <c r="BX12" s="5">
         <v>0.57134242674707492</v>
       </c>
-      <c r="BY12">
+      <c r="BY12" s="5">
         <v>2.9222624236887929E-2</v>
       </c>
-      <c r="BZ12">
+      <c r="BZ12" s="5">
         <v>2.9222624236887929E-2</v>
       </c>
-      <c r="CA12">
+      <c r="CA12" s="5">
         <v>-5.9894370254945928E-2</v>
       </c>
-      <c r="CB12">
+      <c r="CB12" s="5">
         <v>0.39629438759393237</v>
       </c>
-      <c r="CC12">
+      <c r="CC12" s="5">
         <v>0.36099813061768121</v>
       </c>
-      <c r="CD12">
+      <c r="CD12" s="5">
         <v>0.92152586567727179</v>
       </c>
-      <c r="CE12">
+      <c r="CE12" s="5">
         <v>0.89459434521701198</v>
       </c>
-      <c r="CF12">
+      <c r="CF12" s="5">
         <v>0.75992646865158509</v>
       </c>
-      <c r="CG12">
+      <c r="CG12" s="5">
         <v>-0.46886305495303449</v>
       </c>
-      <c r="CH12">
+      <c r="CH12" s="5">
         <v>-0.56964491213850199</v>
       </c>
-      <c r="CI12">
+      <c r="CI12" s="5">
         <v>4.6235849042185143E-3</v>
       </c>
-      <c r="CJ12">
+      <c r="CJ12" s="5">
         <v>3.3401944741259681E-2</v>
       </c>
-      <c r="CK12">
+      <c r="CK12" s="5">
         <v>0.1193952868041788</v>
       </c>
-      <c r="CL12">
+      <c r="CL12" s="5">
         <v>6.581964494052911E-2</v>
       </c>
-      <c r="CM12">
+      <c r="CM12" s="5">
         <v>6.9570697710235996E-2</v>
       </c>
-      <c r="CN12">
+      <c r="CN12" s="5">
         <v>-7.0550082706638581E-2</v>
       </c>
-      <c r="CO12">
+      <c r="CO12" s="5">
         <v>-2.8872735041137871E-2</v>
       </c>
-      <c r="CP12">
+      <c r="CP12" s="5">
         <v>-3.4376948723103241E-2</v>
       </c>
-      <c r="CQ12">
+      <c r="CQ12" s="5">
         <v>-0.28455256217564362</v>
       </c>
-      <c r="CR12">
+      <c r="CR12" s="5">
         <v>0.15341053300826779</v>
       </c>
-      <c r="CS12">
+      <c r="CS12" s="5">
         <v>-4.747809455285646E-2</v>
       </c>
-      <c r="CT12">
+      <c r="CT12" s="5">
         <v>1.5865614183258509E-2</v>
       </c>
-      <c r="CU12">
+      <c r="CU12" s="5">
         <v>-0.24389234106627189</v>
       </c>
-      <c r="CV12" s="3">
+      <c r="CV12" s="5">
         <v>0.87858426266182432</v>
       </c>
-      <c r="CW12">
+      <c r="CW12" s="5">
         <v>-4.3775674154392361E-2</v>
       </c>
-      <c r="CX12">
+      <c r="CX12" s="5">
         <v>-0.19050970792019861</v>
       </c>
-      <c r="CY12">
+      <c r="CY12" s="5">
         <v>-4.8759816960075343E-2</v>
       </c>
     </row>
@@ -6983,314 +6993,314 @@
         <v>0.22168986833273149</v>
       </c>
     </row>
-    <row r="21" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
+    <row r="21" spans="1:103" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B21">
+      <c r="B21" s="5">
         <v>3.818739300776177E-2</v>
       </c>
-      <c r="C21">
+      <c r="C21" s="5">
         <v>0.118411472631652</v>
       </c>
-      <c r="D21">
+      <c r="D21" s="5">
         <v>-6.2417145604671632E-2</v>
       </c>
-      <c r="E21">
+      <c r="E21" s="5">
         <v>-0.18290990944615881</v>
       </c>
-      <c r="F21">
+      <c r="F21" s="5">
         <v>-0.47583406998583261</v>
       </c>
-      <c r="G21">
+      <c r="G21" s="5">
         <v>0.1243492484463866</v>
       </c>
-      <c r="H21">
+      <c r="H21" s="5">
         <v>-9.9522734419202327E-2</v>
       </c>
-      <c r="I21">
+      <c r="I21" s="5">
         <v>-6.4552916803963675E-2</v>
       </c>
-      <c r="J21">
+      <c r="J21" s="5">
         <v>0.74558087826681552</v>
       </c>
-      <c r="K21">
+      <c r="K21" s="5">
         <v>-0.75459923234790593</v>
       </c>
-      <c r="L21">
+      <c r="L21" s="5">
         <v>-0.74668616624635864</v>
       </c>
-      <c r="M21">
+      <c r="M21" s="5">
         <v>3.9444092382435883E-3</v>
       </c>
-      <c r="N21">
+      <c r="N21" s="5">
         <v>0.95219794212085673</v>
       </c>
-      <c r="O21">
+      <c r="O21" s="5">
         <v>-0.69686606365747794</v>
       </c>
-      <c r="P21">
+      <c r="P21" s="5">
         <v>4.6111940330697482E-3</v>
       </c>
-      <c r="Q21">
+      <c r="Q21" s="5">
         <v>0.68827439693534287</v>
       </c>
-      <c r="R21">
+      <c r="R21" s="5">
         <v>0.11586873584958619</v>
       </c>
-      <c r="S21">
+      <c r="S21" s="5">
         <v>-0.35675463243524891</v>
       </c>
-      <c r="T21">
+      <c r="T21" s="5">
         <v>-0.21914447755416791</v>
       </c>
-      <c r="U21">
+      <c r="U21" s="5">
         <v>1</v>
       </c>
-      <c r="V21">
+      <c r="V21" s="5">
         <v>9.0361158979146566E-2</v>
       </c>
-      <c r="W21" s="3">
+      <c r="W21" s="5">
         <v>0.54487553572823877</v>
       </c>
-      <c r="X21">
+      <c r="X21" s="5">
         <v>9.6975737018011723E-2</v>
       </c>
-      <c r="Y21">
+      <c r="Y21" s="5">
         <v>0.65052677096212008</v>
       </c>
-      <c r="Z21">
+      <c r="Z21" s="5">
         <v>0.64544031206934049</v>
       </c>
-      <c r="AA21">
+      <c r="AA21" s="5">
         <v>0.61924610650062151</v>
       </c>
-      <c r="AB21">
+      <c r="AB21" s="5">
         <v>0.65204170896044211</v>
       </c>
-      <c r="AC21">
+      <c r="AC21" s="5">
         <v>9.6975737018011723E-2</v>
       </c>
-      <c r="AD21">
+      <c r="AD21" s="5">
         <v>5.8941630893467087E-2</v>
       </c>
-      <c r="AE21">
+      <c r="AE21" s="5">
         <v>6.0403060322882812E-2</v>
       </c>
-      <c r="AF21">
+      <c r="AF21" s="5">
         <v>7.1094806429183741E-2</v>
       </c>
-      <c r="AG21">
+      <c r="AG21" s="5">
         <v>2.013038972812288E-2</v>
       </c>
-      <c r="AH21">
+      <c r="AH21" s="5">
         <v>-1.9793234823432419E-2</v>
       </c>
-      <c r="AI21">
+      <c r="AI21" s="5">
         <v>1.0277793675474919E-2</v>
       </c>
-      <c r="AJ21">
+      <c r="AJ21" s="5">
         <v>-1.90013326315513E-2</v>
       </c>
-      <c r="AK21">
+      <c r="AK21" s="5">
         <v>-1.231652459602395E-2</v>
       </c>
-      <c r="AL21">
+      <c r="AL21" s="5">
         <v>2.013038972812288E-2</v>
       </c>
-      <c r="AM21">
+      <c r="AM21" s="5">
         <v>0.44146931967368608</v>
       </c>
-      <c r="AN21">
+      <c r="AN21" s="5">
         <v>0.63682348566971581</v>
       </c>
-      <c r="AO21">
+      <c r="AO21" s="5">
         <v>0.69935476139869801</v>
       </c>
-      <c r="AP21">
+      <c r="AP21" s="5">
         <v>0.67374460028571481</v>
       </c>
-      <c r="AQ21">
+      <c r="AQ21" s="5">
         <v>0.44146931967368608</v>
       </c>
-      <c r="AR21">
+      <c r="AR21" s="5">
         <v>0.69114275683247772</v>
       </c>
-      <c r="AS21">
+      <c r="AS21" s="5">
         <v>-8.4003235057082057E-2</v>
       </c>
-      <c r="AT21">
+      <c r="AT21" s="5">
         <v>0.27739669076508811</v>
       </c>
-      <c r="AU21">
+      <c r="AU21" s="5">
         <v>0.3060299098222467</v>
       </c>
-      <c r="AV21">
+      <c r="AV21" s="5">
         <v>0.43092321826917329</v>
       </c>
-      <c r="AW21">
+      <c r="AW21" s="5">
         <v>-8.4003235057082057E-2</v>
       </c>
-      <c r="AX21">
+      <c r="AX21" s="5">
         <v>9.8260734425468843E-2</v>
       </c>
-      <c r="AY21">
+      <c r="AY21" s="5">
         <v>-0.52382559712856736</v>
       </c>
-      <c r="AZ21">
+      <c r="AZ21" s="5">
         <v>0.57382800763370778</v>
       </c>
-      <c r="BA21">
+      <c r="BA21" s="5">
         <v>0.65308231140571626</v>
       </c>
-      <c r="BB21">
+      <c r="BB21" s="5">
         <v>0.56417349748080392</v>
       </c>
-      <c r="BC21">
+      <c r="BC21" s="5">
         <v>7.4293270828146074E-2</v>
       </c>
-      <c r="BD21">
+      <c r="BD21" s="5">
         <v>1.6694418061071171E-2</v>
       </c>
-      <c r="BE21">
+      <c r="BE21" s="5">
         <v>0.1015615790181801</v>
       </c>
-      <c r="BF21">
+      <c r="BF21" s="5">
         <v>0.61100009810208711</v>
       </c>
-      <c r="BG21">
+      <c r="BG21" s="5">
         <v>0.68386018423778117</v>
       </c>
-      <c r="BH21">
+      <c r="BH21" s="5">
         <v>0.38492230765560231</v>
       </c>
-      <c r="BI21">
+      <c r="BI21" s="5">
         <v>0.42419232960931519</v>
       </c>
-      <c r="BJ21">
+      <c r="BJ21" s="5">
         <v>0.53558558784213806</v>
       </c>
-      <c r="BK21">
+      <c r="BK21" s="5">
         <v>0.49477068144484038</v>
       </c>
-      <c r="BL21">
+      <c r="BL21" s="5">
         <v>0.53019955162008903</v>
       </c>
-      <c r="BM21">
+      <c r="BM21" s="5">
         <v>0.5685996017680196</v>
       </c>
-      <c r="BN21">
+      <c r="BN21" s="5">
         <v>0.1005376052318354</v>
       </c>
-      <c r="BO21">
+      <c r="BO21" s="5">
         <v>7.1926676990297367E-2</v>
       </c>
-      <c r="BP21">
+      <c r="BP21" s="5">
         <v>7.1926676990297367E-2</v>
       </c>
-      <c r="BQ21">
+      <c r="BQ21" s="5">
         <v>-0.34469896671645323</v>
       </c>
-      <c r="BR21">
+      <c r="BR21" s="5">
         <v>0.1092792979907834</v>
       </c>
-      <c r="BS21">
+      <c r="BS21" s="5">
         <v>8.0185087083746456E-2</v>
       </c>
-      <c r="BT21">
+      <c r="BT21" s="5">
         <v>0.16123963056337581</v>
       </c>
-      <c r="BU21">
+      <c r="BU21" s="5">
         <v>0.12415816224450001</v>
       </c>
-      <c r="BV21">
+      <c r="BV21" s="5">
         <v>0.20856230843934009</v>
       </c>
-      <c r="BW21">
+      <c r="BW21" s="5">
         <v>0.66399983018243858</v>
       </c>
-      <c r="BX21">
+      <c r="BX21" s="5">
         <v>-0.38522505324644468</v>
       </c>
-      <c r="BY21">
+      <c r="BY21" s="5">
         <v>7.1932283678115758E-2</v>
       </c>
-      <c r="BZ21">
+      <c r="BZ21" s="5">
         <v>7.1932283678115758E-2</v>
       </c>
-      <c r="CA21">
+      <c r="CA21" s="5">
         <v>0.55443201505906969</v>
       </c>
-      <c r="CB21">
+      <c r="CB21" s="5">
         <v>-0.26356039700533812</v>
       </c>
-      <c r="CC21">
+      <c r="CC21" s="5">
         <v>-0.24239240388086999</v>
       </c>
-      <c r="CD21">
+      <c r="CD21" s="5">
         <v>-0.7251502517949765</v>
       </c>
-      <c r="CE21">
+      <c r="CE21" s="5">
         <v>-0.69645277701450914</v>
       </c>
-      <c r="CF21">
+      <c r="CF21" s="5">
         <v>-0.71288386468338272</v>
       </c>
-      <c r="CG21">
+      <c r="CG21" s="5">
         <v>0.69451066509399462</v>
       </c>
-      <c r="CH21">
+      <c r="CH21" s="5">
         <v>0.600814532929695</v>
       </c>
-      <c r="CI21">
+      <c r="CI21" s="5">
         <v>0.37754254477102389</v>
       </c>
-      <c r="CJ21">
+      <c r="CJ21" s="5">
         <v>0.36332557850535302</v>
       </c>
-      <c r="CK21">
+      <c r="CK21" s="5">
         <v>-0.1947424612029354</v>
       </c>
-      <c r="CL21">
+      <c r="CL21" s="5">
         <v>-0.22803189757676551</v>
       </c>
-      <c r="CM21">
+      <c r="CM21" s="5">
         <v>0.229013002388683</v>
       </c>
-      <c r="CN21">
+      <c r="CN21" s="5">
         <v>0.20317570032501001</v>
       </c>
-      <c r="CO21">
+      <c r="CO21" s="5">
         <v>-0.1866514813390775</v>
       </c>
-      <c r="CP21">
+      <c r="CP21" s="5">
         <v>0.17100219309110809</v>
       </c>
-      <c r="CQ21">
+      <c r="CQ21" s="5">
         <v>0.702439859825294</v>
       </c>
-      <c r="CR21">
+      <c r="CR21" s="5">
         <v>8.2646311643428116E-3</v>
       </c>
-      <c r="CS21">
+      <c r="CS21" s="5">
         <v>-0.27066695062122192</v>
       </c>
-      <c r="CT21">
+      <c r="CT21" s="5">
         <v>0.3140871384661259</v>
       </c>
-      <c r="CU21">
+      <c r="CU21" s="5">
         <v>0.70148507235693158</v>
       </c>
-      <c r="CV21" s="3">
+      <c r="CV21" s="5">
         <v>-0.64978636362769437</v>
       </c>
-      <c r="CW21">
+      <c r="CW21" s="5">
         <v>-0.17254370109687139</v>
       </c>
-      <c r="CX21">
+      <c r="CX21" s="5">
         <v>6.3571569908699888E-2</v>
       </c>
-      <c r="CY21">
+      <c r="CY21" s="5">
         <v>-0.13471226382206089</v>
       </c>
     </row>
@@ -11026,314 +11036,314 @@
         <v>0.1171205787287711</v>
       </c>
     </row>
-    <row r="34" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A34" s="1" t="s">
+    <row r="34" spans="1:103" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="B34">
+      <c r="B34" s="5">
         <v>-5.754943569864749E-2</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="5">
         <v>1.6778253614891079E-2</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="5">
         <v>-2.3892656854261399E-2</v>
       </c>
-      <c r="E34">
+      <c r="E34" s="5">
         <v>-1.878036062712563E-3</v>
       </c>
-      <c r="F34">
+      <c r="F34" s="5">
         <v>3.5328541816091782E-2</v>
       </c>
-      <c r="G34">
+      <c r="G34" s="5">
         <v>1.4449752450931779E-2</v>
       </c>
-      <c r="H34">
+      <c r="H34" s="5">
         <v>-1.8552991535701491E-2</v>
       </c>
-      <c r="I34">
+      <c r="I34" s="5">
         <v>-7.8467642335373983E-2</v>
       </c>
-      <c r="J34">
+      <c r="J34" s="5">
         <v>-5.6279656047949267E-2</v>
       </c>
-      <c r="K34">
+      <c r="K34" s="5">
         <v>-3.0551768376194981E-2</v>
       </c>
-      <c r="L34">
+      <c r="L34" s="5">
         <v>-2.5137586958069391E-2</v>
       </c>
-      <c r="M34">
+      <c r="M34" s="5">
         <v>0.1442938042171264</v>
       </c>
-      <c r="N34">
+      <c r="N34" s="5">
         <v>-2.0928751090673822E-2</v>
       </c>
-      <c r="O34">
+      <c r="O34" s="5">
         <v>-2.8221230198741568E-2</v>
       </c>
-      <c r="P34">
+      <c r="P34" s="5">
         <v>-1.450901838819698E-2</v>
       </c>
-      <c r="Q34">
+      <c r="Q34" s="5">
         <v>-6.7877340363512617E-2</v>
       </c>
-      <c r="R34">
+      <c r="R34" s="5">
         <v>-8.8816318492860882E-2</v>
       </c>
-      <c r="S34">
+      <c r="S34" s="5">
         <v>-7.7015889548224858E-2</v>
       </c>
-      <c r="T34">
+      <c r="T34" s="5">
         <v>-2.891565577722003E-2</v>
       </c>
-      <c r="U34">
+      <c r="U34" s="5">
         <v>-1.9793234823432419E-2</v>
       </c>
-      <c r="V34">
+      <c r="V34" s="5">
         <v>-8.4471272854641927E-2</v>
       </c>
-      <c r="W34" s="3">
+      <c r="W34" s="5">
         <v>-8.7719094427938168E-3</v>
       </c>
-      <c r="X34">
+      <c r="X34" s="5">
         <v>-0.1264739579086315</v>
       </c>
-      <c r="Y34">
+      <c r="Y34" s="5">
         <v>2.368775667996096E-2</v>
       </c>
-      <c r="Z34">
+      <c r="Z34" s="5">
         <v>-9.5648742288919855E-2</v>
       </c>
-      <c r="AA34">
+      <c r="AA34" s="5">
         <v>-9.0278561996781789E-2</v>
       </c>
-      <c r="AB34">
+      <c r="AB34" s="5">
         <v>-4.3337652988033833E-2</v>
       </c>
-      <c r="AC34">
+      <c r="AC34" s="5">
         <v>-0.1264739579086315</v>
       </c>
-      <c r="AD34">
+      <c r="AD34" s="5">
         <v>-0.12849543370109209</v>
       </c>
-      <c r="AE34">
+      <c r="AE34" s="5">
         <v>-0.12209713553742881</v>
       </c>
-      <c r="AF34">
+      <c r="AF34" s="5">
         <v>-0.1235193453153236</v>
       </c>
-      <c r="AG34">
+      <c r="AG34" s="5">
         <v>-9.7068810722498747E-2</v>
       </c>
-      <c r="AH34">
+      <c r="AH34" s="5">
         <v>1</v>
       </c>
-      <c r="AI34">
+      <c r="AI34" s="5">
         <v>-8.0930407542825933E-2</v>
       </c>
-      <c r="AJ34">
+      <c r="AJ34" s="5">
         <v>4.0287086596875743E-2</v>
       </c>
-      <c r="AK34">
+      <c r="AK34" s="5">
         <v>0.77784874906047574</v>
       </c>
-      <c r="AL34">
+      <c r="AL34" s="5">
         <v>-9.7068810722498747E-2</v>
       </c>
-      <c r="AM34">
+      <c r="AM34" s="5">
         <v>-6.6899758879772883E-2</v>
       </c>
-      <c r="AN34">
+      <c r="AN34" s="5">
         <v>0.14111851363236139</v>
       </c>
-      <c r="AO34">
+      <c r="AO34" s="5">
         <v>-4.8599941650514088E-2</v>
       </c>
-      <c r="AP34">
+      <c r="AP34" s="5">
         <v>-6.8539199352924157E-2</v>
       </c>
-      <c r="AQ34">
+      <c r="AQ34" s="5">
         <v>-6.6899758879772883E-2</v>
       </c>
-      <c r="AR34">
+      <c r="AR34" s="5">
         <v>2.080859895281444E-2</v>
       </c>
-      <c r="AS34">
+      <c r="AS34" s="5">
         <v>7.074162326910749E-2</v>
       </c>
-      <c r="AT34">
+      <c r="AT34" s="5">
         <v>0.11912951982977479</v>
       </c>
-      <c r="AU34">
+      <c r="AU34" s="5">
         <v>9.8507807508852199E-2</v>
       </c>
-      <c r="AV34">
+      <c r="AV34" s="5">
         <v>0.14175191450429189</v>
       </c>
-      <c r="AW34">
+      <c r="AW34" s="5">
         <v>7.074162326910749E-2</v>
       </c>
-      <c r="AX34">
+      <c r="AX34" s="5">
         <v>7.97007655623687E-2</v>
       </c>
-      <c r="AY34">
+      <c r="AY34" s="5">
         <v>-1.495914300550737E-3</v>
       </c>
-      <c r="AZ34">
+      <c r="AZ34" s="5">
         <v>-0.15951835323772121</v>
       </c>
-      <c r="BA34">
+      <c r="BA34" s="5">
         <v>-0.13053053339896509</v>
       </c>
-      <c r="BB34">
+      <c r="BB34" s="5">
         <v>-0.13691805543652449</v>
       </c>
-      <c r="BC34">
+      <c r="BC34" s="5">
         <v>-0.11573328721747431</v>
       </c>
-      <c r="BD34">
+      <c r="BD34" s="5">
         <v>-0.10349267977434221</v>
       </c>
-      <c r="BE34">
+      <c r="BE34" s="5">
         <v>-0.12666642897354041</v>
       </c>
-      <c r="BF34">
+      <c r="BF34" s="5">
         <v>-3.2006352660957308E-3</v>
       </c>
-      <c r="BG34">
+      <c r="BG34" s="5">
         <v>-2.522839481755073E-2</v>
       </c>
-      <c r="BH34">
+      <c r="BH34" s="5">
         <v>-6.899000569262434E-2</v>
       </c>
-      <c r="BI34">
+      <c r="BI34" s="5">
         <v>4.0693519630706422E-2</v>
       </c>
-      <c r="BJ34">
+      <c r="BJ34" s="5">
         <v>1.2598223342332101E-2</v>
       </c>
-      <c r="BK34">
+      <c r="BK34" s="5">
         <v>2.627934479163983E-2</v>
       </c>
-      <c r="BL34">
+      <c r="BL34" s="5">
         <v>-5.5691436306863421E-2</v>
       </c>
-      <c r="BM34">
+      <c r="BM34" s="5">
         <v>-3.4500380057000513E-2</v>
       </c>
-      <c r="BN34">
+      <c r="BN34" s="5">
         <v>-0.1201547210081869</v>
       </c>
-      <c r="BO34">
+      <c r="BO34" s="5">
         <v>-0.11545943912337529</v>
       </c>
-      <c r="BP34">
+      <c r="BP34" s="5">
         <v>-0.11545943912337529</v>
       </c>
-      <c r="BQ34">
+      <c r="BQ34" s="5">
         <v>-2.7269715480912889E-2</v>
       </c>
-      <c r="BR34">
+      <c r="BR34" s="5">
         <v>-0.11974544448756549</v>
       </c>
-      <c r="BS34">
+      <c r="BS34" s="5">
         <v>-0.10840869730645659</v>
       </c>
-      <c r="BT34">
+      <c r="BT34" s="5">
         <v>-5.1282265124109362E-2</v>
       </c>
-      <c r="BU34">
+      <c r="BU34" s="5">
         <v>-5.0280761993182682E-2</v>
       </c>
-      <c r="BV34">
+      <c r="BV34" s="5">
         <v>4.7786440193986639E-2</v>
       </c>
-      <c r="BW34">
+      <c r="BW34" s="5">
         <v>0.105419876113845</v>
       </c>
-      <c r="BX34">
+      <c r="BX34" s="5">
         <v>-0.1054459175079526</v>
       </c>
-      <c r="BY34">
+      <c r="BY34" s="5">
         <v>-0.11546204084362061</v>
       </c>
-      <c r="BZ34">
+      <c r="BZ34" s="5">
         <v>-0.11546204084362061</v>
       </c>
-      <c r="CA34">
+      <c r="CA34" s="5">
         <v>-7.9340042749689782E-2</v>
       </c>
-      <c r="CB34">
+      <c r="CB34" s="5">
         <v>-0.10909739544057109</v>
       </c>
-      <c r="CC34">
+      <c r="CC34" s="5">
         <v>-8.2498153566045396E-2</v>
       </c>
-      <c r="CD34">
+      <c r="CD34" s="5">
         <v>-4.4835708343136098E-2</v>
       </c>
-      <c r="CE34">
+      <c r="CE34" s="5">
         <v>-4.5651029183790881E-2</v>
       </c>
-      <c r="CF34">
+      <c r="CF34" s="5">
         <v>2.1271395356041341E-2</v>
       </c>
-      <c r="CG34">
+      <c r="CG34" s="5">
         <v>1.726492616824029E-2</v>
       </c>
-      <c r="CH34">
+      <c r="CH34" s="5">
         <v>4.2769372540660613E-2</v>
       </c>
-      <c r="CI34">
+      <c r="CI34" s="5">
         <v>-4.3745334477179508E-2</v>
       </c>
-      <c r="CJ34">
+      <c r="CJ34" s="5">
         <v>-8.8936019790121876E-2</v>
       </c>
-      <c r="CK34">
+      <c r="CK34" s="5">
         <v>-2.3962276982159979E-2</v>
       </c>
-      <c r="CL34">
+      <c r="CL34" s="5">
         <v>-1.8860772169132262E-2</v>
       </c>
-      <c r="CM34">
+      <c r="CM34" s="5">
         <v>6.7126323521362177E-2</v>
       </c>
-      <c r="CN34">
+      <c r="CN34" s="5">
         <v>-8.7425426711219851E-3</v>
       </c>
-      <c r="CO34">
+      <c r="CO34" s="5">
         <v>-3.2321722529153191E-2</v>
       </c>
-      <c r="CP34">
+      <c r="CP34" s="5">
         <v>1.4936441837005659E-2</v>
       </c>
-      <c r="CQ34">
+      <c r="CQ34" s="5">
         <v>-3.2838458775502247E-2</v>
       </c>
-      <c r="CR34">
+      <c r="CR34" s="5">
         <v>-4.8728787810597043E-2</v>
       </c>
-      <c r="CS34">
+      <c r="CS34" s="5">
         <v>-1.317113376095156E-2</v>
       </c>
-      <c r="CT34">
+      <c r="CT34" s="5">
         <v>-3.366933945005255E-2</v>
       </c>
-      <c r="CU34">
+      <c r="CU34" s="5">
         <v>-6.3611465542249834E-3</v>
       </c>
-      <c r="CV34" s="3">
+      <c r="CV34" s="5">
         <v>-8.7321866229550058E-2</v>
       </c>
-      <c r="CW34">
+      <c r="CW34" s="5">
         <v>0.13928700426274379</v>
       </c>
-      <c r="CX34">
+      <c r="CX34" s="5">
         <v>-9.2751092999328918E-2</v>
       </c>
-      <c r="CY34">
+      <c r="CY34" s="5">
         <v>0.15061202652672051</v>
       </c>
     </row>
@@ -11959,314 +11969,314 @@
         <v>6.2356452948887919E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:103" x14ac:dyDescent="0.25">
-      <c r="A37" s="1" t="s">
+    <row r="37" spans="1:103" s="5" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="B37">
+      <c r="B37" s="5">
         <v>5.1878704547701229E-2</v>
       </c>
-      <c r="C37">
+      <c r="C37" s="5">
         <v>4.7051006793611197E-2</v>
       </c>
-      <c r="D37">
+      <c r="D37" s="5">
         <v>-6.2788228816332295E-2</v>
       </c>
-      <c r="E37">
+      <c r="E37" s="5">
         <v>-4.6558973978462183E-2</v>
       </c>
-      <c r="F37">
+      <c r="F37" s="5">
         <v>-9.709318738021458E-3</v>
       </c>
-      <c r="G37">
+      <c r="G37" s="5">
         <v>5.0647286535012222E-2</v>
       </c>
-      <c r="H37">
+      <c r="H37" s="5">
         <v>-6.1630774336914058E-2</v>
       </c>
-      <c r="I37">
+      <c r="I37" s="5">
         <v>-0.1342795661756119</v>
       </c>
-      <c r="J37">
+      <c r="J37" s="5">
         <v>-5.2643838406480292E-2</v>
       </c>
-      <c r="K37">
+      <c r="K37" s="5">
         <v>-3.8565332410322048E-2</v>
       </c>
-      <c r="L37">
+      <c r="L37" s="5">
         <v>-6.1678402599532417E-2</v>
       </c>
-      <c r="M37">
+      <c r="M37" s="5">
         <v>4.4307073567968987E-2</v>
       </c>
-      <c r="N37">
+      <c r="N37" s="5">
         <v>6.5875579260497898E-3</v>
       </c>
-      <c r="O37">
+      <c r="O37" s="5">
         <v>-3.4802077387126887E-2</v>
       </c>
-      <c r="P37">
+      <c r="P37" s="5">
         <v>-1.4955415144783751E-2</v>
       </c>
-      <c r="Q37">
+      <c r="Q37" s="5">
         <v>-7.6919262977294053E-2</v>
       </c>
-      <c r="R37">
+      <c r="R37" s="5">
         <v>-6.2138555560073687E-2</v>
       </c>
-      <c r="S37">
+      <c r="S37" s="5">
         <v>-9.4141411201923528E-2</v>
       </c>
-      <c r="T37">
+      <c r="T37" s="5">
         <v>3.0740075153806732E-3</v>
       </c>
-      <c r="U37">
+      <c r="U37" s="5">
         <v>-1.231652459602395E-2</v>
       </c>
-      <c r="V37">
+      <c r="V37" s="5">
         <v>-1.8868016880077141E-2</v>
       </c>
-      <c r="W37" s="3">
+      <c r="W37" s="5">
         <v>-3.6343284222518028E-2</v>
       </c>
-      <c r="X37">
+      <c r="X37" s="5">
         <v>-0.1091074797993449</v>
       </c>
-      <c r="Y37">
+      <c r="Y37" s="5">
         <v>-2.8298102741110151E-2</v>
       </c>
-      <c r="Z37">
+      <c r="Z37" s="5">
         <v>-0.14133351824375001</v>
       </c>
-      <c r="AA37">
+      <c r="AA37" s="5">
         <v>-0.12865849601454901</v>
       </c>
-      <c r="AB37">
+      <c r="AB37" s="5">
         <v>-9.1553806405555327E-2</v>
       </c>
-      <c r="AC37">
+      <c r="AC37" s="5">
         <v>-0.1091074797993449</v>
       </c>
-      <c r="AD37">
+      <c r="AD37" s="5">
         <v>-0.10796654380177589</v>
       </c>
-      <c r="AE37">
+      <c r="AE37" s="5">
         <v>-0.1019165890501495</v>
       </c>
-      <c r="AF37">
+      <c r="AF37" s="5">
         <v>-0.104378475710467</v>
       </c>
-      <c r="AG37">
+      <c r="AG37" s="5">
         <v>-2.2477693208116791E-2</v>
       </c>
-      <c r="AH37">
+      <c r="AH37" s="5">
         <v>0.77784874906047574</v>
       </c>
-      <c r="AI37">
+      <c r="AI37" s="5">
         <v>0.55002224562980928</v>
       </c>
-      <c r="AJ37">
+      <c r="AJ37" s="5">
         <v>0.1106082532491713</v>
       </c>
-      <c r="AK37">
+      <c r="AK37" s="5">
         <v>1</v>
       </c>
-      <c r="AL37">
+      <c r="AL37" s="5">
         <v>-2.2477693208116791E-2</v>
       </c>
-      <c r="AM37">
+      <c r="AM37" s="5">
         <v>-4.000850062591365E-2</v>
       </c>
-      <c r="AN37">
+      <c r="AN37" s="5">
         <v>0.1168430299036028</v>
       </c>
-      <c r="AO37">
+      <c r="AO37" s="5">
         <v>-5.3090800023092327E-2</v>
       </c>
-      <c r="AP37">
+      <c r="AP37" s="5">
         <v>-6.3803929030157178E-2</v>
       </c>
-      <c r="AQ37">
+      <c r="AQ37" s="5">
         <v>-4.000850062591365E-2</v>
       </c>
-      <c r="AR37">
+      <c r="AR37" s="5">
         <v>9.3919847514645979E-3</v>
       </c>
-      <c r="AS37">
+      <c r="AS37" s="5">
         <v>2.3007530202438939E-2</v>
       </c>
-      <c r="AT37">
+      <c r="AT37" s="5">
         <v>0.10065036640211079</v>
       </c>
-      <c r="AU37">
+      <c r="AU37" s="5">
         <v>8.5013363133332104E-2</v>
       </c>
-      <c r="AV37">
+      <c r="AV37" s="5">
         <v>0.1244685185056348</v>
       </c>
-      <c r="AW37">
+      <c r="AW37" s="5">
         <v>2.3007530202438939E-2</v>
       </c>
-      <c r="AX37">
+      <c r="AX37" s="5">
         <v>5.1938433407392633E-2</v>
       </c>
-      <c r="AY37">
+      <c r="AY37" s="5">
         <v>4.2090652603696273E-2</v>
       </c>
-      <c r="AZ37">
+      <c r="AZ37" s="5">
         <v>-0.1925611998381819</v>
       </c>
-      <c r="BA37">
+      <c r="BA37" s="5">
         <v>-0.11308610584616691</v>
       </c>
-      <c r="BB37">
+      <c r="BB37" s="5">
         <v>-0.13407059991994899</v>
       </c>
-      <c r="BC37">
+      <c r="BC37" s="5">
         <v>-7.1661511335289044E-2</v>
       </c>
-      <c r="BD37">
+      <c r="BD37" s="5">
         <v>-5.5102355265393907E-2</v>
       </c>
-      <c r="BE37">
+      <c r="BE37" s="5">
         <v>-0.1104223982378405</v>
       </c>
-      <c r="BF37">
+      <c r="BF37" s="5">
         <v>-1.3288137540582E-2</v>
       </c>
-      <c r="BG37">
+      <c r="BG37" s="5">
         <v>-4.1357469976444981E-2</v>
       </c>
-      <c r="BH37">
+      <c r="BH37" s="5">
         <v>-0.1138290565023964</v>
       </c>
-      <c r="BI37">
+      <c r="BI37" s="5">
         <v>6.469591478933899E-2</v>
       </c>
-      <c r="BJ37">
+      <c r="BJ37" s="5">
         <v>4.8120695018963343E-2</v>
       </c>
-      <c r="BK37">
+      <c r="BK37" s="5">
         <v>5.0461345059011273E-2</v>
       </c>
-      <c r="BL37">
+      <c r="BL37" s="5">
         <v>-7.5891021542155324E-2</v>
       </c>
-      <c r="BM37">
+      <c r="BM37" s="5">
         <v>-5.1466692650313381E-2</v>
       </c>
-      <c r="BN37">
+      <c r="BN37" s="5">
         <v>-0.21064895845685</v>
       </c>
-      <c r="BO37">
+      <c r="BO37" s="5">
         <v>-0.2144684065424039</v>
       </c>
-      <c r="BP37">
+      <c r="BP37" s="5">
         <v>-0.2144684065424039</v>
       </c>
-      <c r="BQ37">
+      <c r="BQ37" s="5">
         <v>-7.2809211563048232E-2</v>
       </c>
-      <c r="BR37">
+      <c r="BR37" s="5">
         <v>-0.2128197700175801</v>
       </c>
-      <c r="BS37">
+      <c r="BS37" s="5">
         <v>-0.1959031843147169</v>
       </c>
-      <c r="BT37">
+      <c r="BT37" s="5">
         <v>-5.9579626047911692E-2</v>
       </c>
-      <c r="BU37">
+      <c r="BU37" s="5">
         <v>-5.9158286709811748E-2</v>
       </c>
-      <c r="BV37">
+      <c r="BV37" s="5">
         <v>5.2565408018687393E-2</v>
       </c>
-      <c r="BW37">
+      <c r="BW37" s="5">
         <v>6.8421524307114318E-2</v>
       </c>
-      <c r="BX37">
+      <c r="BX37" s="5">
         <v>-0.18425894291985709</v>
       </c>
-      <c r="BY37">
+      <c r="BY37" s="5">
         <v>-0.2144710461295832</v>
       </c>
-      <c r="BZ37">
+      <c r="BZ37" s="5">
         <v>-0.2144710461295832</v>
       </c>
-      <c r="CA37">
+      <c r="CA37" s="5">
         <v>-0.14810752094768659</v>
       </c>
-      <c r="CB37">
+      <c r="CB37" s="5">
         <v>-0.2017832264196468</v>
       </c>
-      <c r="CC37">
+      <c r="CC37" s="5">
         <v>-0.16606610611307879</v>
       </c>
-      <c r="CD37">
+      <c r="CD37" s="5">
         <v>-3.9051303368520293E-2</v>
       </c>
-      <c r="CE37">
+      <c r="CE37" s="5">
         <v>-3.8662492662091513E-2</v>
       </c>
-      <c r="CF37">
+      <c r="CF37" s="5">
         <v>2.0729478804281221E-2</v>
       </c>
-      <c r="CG37">
+      <c r="CG37" s="5">
         <v>2.2566910558545591E-2</v>
       </c>
-      <c r="CH37">
+      <c r="CH37" s="5">
         <v>6.5591449552516265E-2</v>
       </c>
-      <c r="CI37">
+      <c r="CI37" s="5">
         <v>-6.6374093235674267E-2</v>
       </c>
-      <c r="CJ37">
+      <c r="CJ37" s="5">
         <v>-0.105427488033096</v>
       </c>
-      <c r="CK37">
+      <c r="CK37" s="5">
         <v>-1.5155459439350439E-2</v>
       </c>
-      <c r="CL37">
+      <c r="CL37" s="5">
         <v>-7.7498979250817746E-3</v>
       </c>
-      <c r="CM37">
+      <c r="CM37" s="5">
         <v>9.177224349306197E-2</v>
       </c>
-      <c r="CN37">
+      <c r="CN37" s="5">
         <v>5.069962595812526E-3</v>
       </c>
-      <c r="CO37">
+      <c r="CO37" s="5">
         <v>-3.3045823365078567E-2</v>
       </c>
-      <c r="CP37">
+      <c r="CP37" s="5">
         <v>-6.5831178605262289E-2</v>
       </c>
-      <c r="CQ37">
+      <c r="CQ37" s="5">
         <v>-3.6785106521695143E-2</v>
       </c>
-      <c r="CR37">
+      <c r="CR37" s="5">
         <v>-4.2805124291328378E-2</v>
       </c>
-      <c r="CS37">
+      <c r="CS37" s="5">
         <v>-3.7612210203933471E-3</v>
       </c>
-      <c r="CT37">
+      <c r="CT37" s="5">
         <v>-0.101612810880854</v>
       </c>
-      <c r="CU37">
+      <c r="CU37" s="5">
         <v>-8.4482473508638058E-3</v>
       </c>
-      <c r="CV37" s="3">
+      <c r="CV37" s="5">
         <v>-8.8806479474282329E-2</v>
       </c>
-      <c r="CW37">
+      <c r="CW37" s="5">
         <v>0.22905240054520759</v>
       </c>
-      <c r="CX37">
+      <c r="CX37" s="5">
         <v>-2.520974272416095E-2</v>
       </c>
-      <c r="CY37">
+      <c r="CY37" s="5">
         <v>0.23341438868643211</v>
       </c>
     </row>
